--- a/import-template/Faculty Data Sample.xlsx
+++ b/import-template/Faculty Data Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\Capstone\import-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B83046A5-D7DA-47BD-8909-686901FE5C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981599D0-7E6E-4125-99D3-C77D62B0611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3450" windowWidth="18045" windowHeight="11325" activeTab="1" xr2:uid="{69FD8C75-4047-4FDC-AE7C-5CC9CE87E7E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69FD8C75-4047-4FDC-AE7C-5CC9CE87E7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="FacultyList" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>FACULTY_NUMBER</t>
   </si>
@@ -229,6 +229,21 @@
   </si>
   <si>
     <t>BSIT</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>DATE OF EMPLOYMENT</t>
+  </si>
+  <si>
+    <t>International Studies</t>
+  </si>
+  <si>
+    <t>Theology</t>
+  </si>
+  <si>
+    <t>Science and Technology</t>
   </si>
 </sst>
 </file>
@@ -281,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,6 +305,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -605,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA0D9D9-4040-4749-A667-981B54E007B6}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,9 +637,11 @@
     <col min="6" max="6" width="16.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,8 +666,14 @@
       <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -670,8 +695,14 @@
       <c r="H2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="7">
+        <v>41069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -693,8 +724,14 @@
       <c r="H3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="7">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -713,8 +750,14 @@
       <c r="H4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="7">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -736,8 +779,14 @@
       <c r="H5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="7">
+        <v>40234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -758,6 +807,12 @@
       </c>
       <c r="H6" t="s">
         <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="7">
+        <v>44574</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458BCA95-6238-4C2C-A814-681AB5428FC5}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
